--- a/page_data/result.xlsx
+++ b/page_data/result.xlsx
@@ -551,6 +551,7 @@
         <c:axId val="232885416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4482,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -4657,7 +4658,7 @@
         <v>553</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K3:K8" si="3">SUM((H4:J4))</f>
+        <f t="shared" ref="K4:K8" si="3">SUM((H4:J4))</f>
         <v>1535</v>
       </c>
       <c r="L4">
